--- a/src/main/resources/ExportTemplate/ProfitLossTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/ProfitLossTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>KHACH HANG</t>
   </si>
@@ -38,21 +38,9 @@
     <t>THẦU PHỤ</t>
   </si>
   <si>
-    <t>PHI KHAC</t>
-  </si>
-  <si>
-    <t>SỐ HD</t>
-  </si>
-  <si>
-    <t>THEO DOI TT</t>
-  </si>
-  <si>
     <t>TONG CHI (DA CO VAT)</t>
   </si>
   <si>
-    <t>SỐ INVOICE</t>
-  </si>
-  <si>
     <t>THU THEO HOA DON (CO VAT)</t>
   </si>
   <si>
@@ -74,13 +62,58 @@
     <t>${startDate}</t>
   </si>
   <si>
-    <t>${detail.jobName}</t>
-  </si>
-  <si>
     <t>${detail.nhathau}</t>
   </si>
   <si>
     <t>${endDate}</t>
+  </si>
+  <si>
+    <t>${detail.jobNo}</t>
+  </si>
+  <si>
+    <t>Ngày giao hàng</t>
+  </si>
+  <si>
+    <t>${detail.dateDev}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${feeNames}" var="feeName"&gt;</t>
+  </si>
+  <si>
+    <t>${feeName}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${detail.convertedFee}" var="feeVal"&gt;</t>
+  </si>
+  <si>
+    <t>${feeVal.feeVal}</t>
+  </si>
+  <si>
+    <t>${detail.total}</t>
+  </si>
+  <si>
+    <t>${detail.tongChi}</t>
+  </si>
+  <si>
+    <t>${detail.profitLoss}</t>
+  </si>
+  <si>
+    <t>${detail.tongThu}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${feeNamesThu}" var="feeName"&gt;</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${detail.convertedFeeThu}" var="feeVal"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:if test="${!empty feeNamesThu}"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/jx:if&gt;</t>
   </si>
 </sst>
 </file>
@@ -93,7 +126,7 @@
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,14 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,13 +159,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,50 +189,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -232,108 +225,52 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -616,11 +553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N12" sqref="N12:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,213 +565,206 @@
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="30" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13" style="11" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="2"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" s="19" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="Q3" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="35" t="s">
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/ExportTemplate/ProfitLossTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/ProfitLossTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>KHACH HANG</t>
   </si>
@@ -38,12 +38,6 @@
     <t>THẦU PHỤ</t>
   </si>
   <si>
-    <t>TONG CHI (DA CO VAT)</t>
-  </si>
-  <si>
-    <t>THU THEO HOA DON (CO VAT)</t>
-  </si>
-  <si>
     <t>${detail.cusName}</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>${feeVal.feeVal}</t>
   </si>
   <si>
-    <t>${detail.total}</t>
-  </si>
-  <si>
     <t>${detail.tongChi}</t>
   </si>
   <si>
@@ -104,16 +95,25 @@
     <t>&lt;jx:forEach items="${feeNamesThu}" var="feeName"&gt;</t>
   </si>
   <si>
-    <t>Tổng cộng</t>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${detail.convertedFeeThu}" var="feeVal"&gt;</t>
   </si>
   <si>
-    <t>&lt;jx:if test="${!empty feeNamesThu}"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/jx:if&gt;</t>
+    <t>TONG CHI (MANIFEST-DA CO VAT)</t>
+  </si>
+  <si>
+    <t>TONG CHI (TRUCKING -DA CO VAT)</t>
+  </si>
+  <si>
+    <t>THU HO</t>
+  </si>
+  <si>
+    <t>TONG THU (DEBIT)</t>
+  </si>
+  <si>
+    <t>${detail.debit}</t>
+  </si>
+  <si>
+    <t>${detail.thuHo}</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -239,7 +238,6 @@
     <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -271,6 +269,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -553,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N12" sqref="N12:N13"/>
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,21 +577,19 @@
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="13" max="15" width="24.85546875" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -599,139 +601,120 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" s="19" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:16" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="11" t="s">
+      <c r="L5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="P5" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-      <c r="M4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -744,24 +727,22 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ExportTemplate/ProfitLossTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/ProfitLossTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\src\main\resources\ExportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\ael\src\main\resources\ExportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -269,10 +269,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,28 +563,28 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K12" sqref="K12"/>
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="24.85546875" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="24.81640625" customWidth="1"/>
+    <col min="16" max="16" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
@@ -589,7 +592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -602,7 +605,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -652,14 +655,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -678,43 +681,43 @@
       <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -732,13 +735,13 @@
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>

--- a/src/main/resources/ExportTemplate/ProfitLossTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/ProfitLossTemplate.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\ael\src\main\resources\ExportTemplate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +121,7 @@
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,24 +139,22 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -227,57 +220,55 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -340,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,188 +555,189 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M14" sqref="M14"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="24.81640625" customWidth="1"/>
-    <col min="16" max="16" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="15" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="24.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:16" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
